--- a/test_speeches/predictions/Speech_2_Maggie_Thatcher_AI.xlsx
+++ b/test_speeches/predictions/Speech_2_Maggie_Thatcher_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,66 +436,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>But all this will avail us little unless we achieve our prime economic objective—the defeat of inflation.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -516,26 +517,29 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inflation destroys nations and societies as surely as invading armies do.</t>
+          <t>But all this will avail us little unless we achieve our prime economic objective—the defeat of inflation.</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -550,29 +554,32 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Inflation is the parent of unemployment.</t>
+          <t>Inflation destroys nations and societies as surely as invading armies do.</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -581,28 +588,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>It is the unseen robber of those who have saved.</t>
+          <t>Inflation is the parent of unemployment.</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -624,29 +634,32 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>If our people feel that they are part of a great nation and they are prepared to will the means to keep it great, a great nation we shall be, and shall remain.</t>
+          <t>It is the unseen robber of those who have saved.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -655,32 +668,35 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>So, what can stop us from achieving this?</t>
+          <t>If our people feel that they are part of a great nation and they are prepared to will the means to keep it great, a great nation we shall be, and shall remain.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -692,38 +708,41 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What then stands in our way?</t>
+          <t>So, what can stop us from achieving this?</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -732,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -741,26 +760,29 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The prospect of another winter of discontent?</t>
+          <t>What then stands in our way?</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -769,38 +791,41 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I suppose it might.</t>
+          <t>The prospect of another winter of discontent?</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -809,26 +834,29 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>But I prefer to believe that certain lessons have been learnt from experience, that we are coming, slowly, painfully, to an autumn of understanding.</t>
+          <t>I suppose it might.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -852,23 +880,26 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>And I hope that it will be followed by a winter of common sense.</t>
+          <t>But I prefer to believe that certain lessons have been learnt from experience, that we are coming, slowly, painfully, to an autumn of understanding.</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -877,32 +908,35 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>If it is not, we shall not be diverted from our course.</t>
+          <t>And I hope that it will be followed by a winter of common sense.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -920,22 +954,25 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>To those waiting with bated breath for that favourite media catchphrase, the U-turn, I have only one thing to say.</t>
+          <t>If it is not, we shall not be diverted from our course.</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -957,22 +994,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>“You turn if you want to.</t>
+          <t>To those waiting with bated breath for that favourite media catchphrase, the U-turn, I have only one thing to say.</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -985,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1000,23 +1040,26 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The lady’s not for turning.”</t>
+          <t>“You turn if you want to.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1037,43 +1080,89 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The lady’s not for turning.”</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>I say that not only to you but to our friends over-seas and also to those who are not our friends.</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_speeches/predictions/Speech_2_Maggie_Thatcher_AI.xlsx
+++ b/test_speeches/predictions/Speech_2_Maggie_Thatcher_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
